--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arekk\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nukle\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD88036-19AD-47BB-97EF-C32455EA2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA9210A-B99C-4045-A329-9EC137E2E124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{69033F13-573A-4EB5-A436-D737010ECCC2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{69033F13-573A-4EB5-A436-D737010ECCC2}"/>
   </bookViews>
   <sheets>
     <sheet name="exploration_results" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>Type</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>1529</t>
-  </si>
-  <si>
-    <t>1705</t>
   </si>
   <si>
     <t>1520</t>
@@ -631,7 +628,7 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -648,7 +645,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="7" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="9" borderId="8" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="7" applyBorder="1"/>
@@ -679,6 +675,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="40% — akcent 1" xfId="4" builtinId="31"/>
@@ -4491,20 +4489,20 @@
   <dimension ref="A1:M368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +4525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4569,7 +4567,7 @@
         <v>0.1993762433996952</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4608,7 +4606,7 @@
         <v>0.19567346219094994</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4647,7 +4645,7 @@
         <v>0.18846817684959766</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4686,7 +4684,7 @@
         <v>0.22516203937396967</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4725,7 +4723,7 @@
         <v>0.23815316569850498</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4767,7 +4765,7 @@
         <v>0.235333477425338</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>0.25541797064410598</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4845,7 +4843,7 @@
         <v>0.25872424098815144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4884,7 +4882,7 @@
         <v>0.2634932557115815</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4923,7 +4921,7 @@
         <v>0.31710988901757858</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4965,7 +4963,7 @@
         <v>0.30846346275485159</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5004,7 +5002,7 @@
         <v>0.31894060067929675</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -5043,7 +5041,7 @@
         <v>0.36278300835779353</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5082,7 +5080,7 @@
         <v>0.3325260671461826</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5121,7 +5119,7 @@
         <v>0.36871917382431574</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -5163,7 +5161,7 @@
         <v>0.41726336858423291</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5202,7 +5200,7 @@
         <v>0.41349032434826538</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5241,7 +5239,7 @@
         <v>0.40712566763138769</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5263,7 +5261,7 @@
       </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5285,7 +5283,7 @@
       </c>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5310,7 +5308,7 @@
         <v>0.23815316569850498</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5332,7 +5330,7 @@
       </c>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5354,7 +5352,7 @@
       </c>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -5376,7 +5374,7 @@
       </c>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5398,7 +5396,7 @@
       </c>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5423,7 +5421,7 @@
         <v>0.235333477425338</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5445,7 +5443,7 @@
       </c>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -5467,7 +5465,7 @@
       </c>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -5489,7 +5487,7 @@
       </c>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -5511,7 +5509,7 @@
       </c>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5536,7 +5534,7 @@
         <v>0.25541797064410598</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -5558,7 +5556,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -5580,7 +5578,7 @@
       </c>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -5602,7 +5600,7 @@
       </c>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5624,7 +5622,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -5649,7 +5647,7 @@
         <v>0.25872424098815144</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -5671,7 +5669,7 @@
       </c>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0</v>
       </c>
@@ -5693,7 +5691,7 @@
       </c>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0</v>
       </c>
@@ -5715,7 +5713,7 @@
       </c>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0</v>
       </c>
@@ -5737,7 +5735,7 @@
       </c>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0</v>
       </c>
@@ -5762,7 +5760,7 @@
         <v>0.2634932557115815</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0</v>
       </c>
@@ -5784,7 +5782,7 @@
       </c>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -5806,7 +5804,7 @@
       </c>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0</v>
       </c>
@@ -5828,7 +5826,7 @@
       </c>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -5850,7 +5848,7 @@
       </c>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -5875,7 +5873,7 @@
         <v>0.31710988901757858</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -5897,7 +5895,7 @@
       </c>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -5919,7 +5917,7 @@
       </c>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -5941,7 +5939,7 @@
       </c>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -5963,7 +5961,7 @@
       </c>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -5988,7 +5986,7 @@
         <v>0.30846346275485159</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0</v>
       </c>
@@ -6010,7 +6008,7 @@
       </c>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0</v>
       </c>
@@ -6032,7 +6030,7 @@
       </c>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
@@ -6054,7 +6052,7 @@
       </c>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0</v>
       </c>
@@ -6076,7 +6074,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -6101,7 +6099,7 @@
         <v>0.31894060067929675</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -6123,7 +6121,7 @@
       </c>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0</v>
       </c>
@@ -6145,7 +6143,7 @@
       </c>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0</v>
       </c>
@@ -6167,7 +6165,7 @@
       </c>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0</v>
       </c>
@@ -6189,7 +6187,7 @@
       </c>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0</v>
       </c>
@@ -6214,7 +6212,7 @@
         <v>0.36278300835779353</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0</v>
       </c>
@@ -6236,7 +6234,7 @@
       </c>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0</v>
       </c>
@@ -6258,7 +6256,7 @@
       </c>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -6280,7 +6278,7 @@
       </c>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0</v>
       </c>
@@ -6302,7 +6300,7 @@
       </c>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -6327,7 +6325,7 @@
         <v>0.3325260671461826</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0</v>
       </c>
@@ -6349,7 +6347,7 @@
       </c>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0</v>
       </c>
@@ -6371,7 +6369,7 @@
       </c>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
@@ -6393,7 +6391,7 @@
       </c>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0</v>
       </c>
@@ -6415,7 +6413,7 @@
       </c>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -6440,7 +6438,7 @@
         <v>0.36871917382431574</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0</v>
       </c>
@@ -6462,7 +6460,7 @@
       </c>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0</v>
       </c>
@@ -6484,7 +6482,7 @@
       </c>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0</v>
       </c>
@@ -6506,7 +6504,7 @@
       </c>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0</v>
       </c>
@@ -6528,7 +6526,7 @@
       </c>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0</v>
       </c>
@@ -6553,7 +6551,7 @@
         <v>0.41726336858423291</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0</v>
       </c>
@@ -6575,7 +6573,7 @@
       </c>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0</v>
       </c>
@@ -6597,7 +6595,7 @@
       </c>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0</v>
       </c>
@@ -6619,7 +6617,7 @@
       </c>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0</v>
       </c>
@@ -6641,7 +6639,7 @@
       </c>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0</v>
       </c>
@@ -6666,7 +6664,7 @@
         <v>0.41349032434826538</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0</v>
       </c>
@@ -6688,7 +6686,7 @@
       </c>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0</v>
       </c>
@@ -6710,7 +6708,7 @@
       </c>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0</v>
       </c>
@@ -6732,7 +6730,7 @@
       </c>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -6754,7 +6752,7 @@
       </c>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0</v>
       </c>
@@ -6779,7 +6777,7 @@
         <v>0.40712566763138769</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0</v>
       </c>
@@ -6801,7 +6799,7 @@
       </c>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0</v>
       </c>
@@ -6823,7 +6821,7 @@
       </c>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0</v>
       </c>
@@ -6845,7 +6843,7 @@
       </c>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0</v>
       </c>
@@ -6867,7 +6865,7 @@
       </c>
       <c r="G91" s="5"/>
     </row>
-    <row r="279" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G279" s="1">
         <v>0</v>
       </c>
@@ -6888,7 +6886,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="280" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G280" s="3">
         <v>0</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="281" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G281" s="1">
         <v>0</v>
       </c>
@@ -6930,7 +6928,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="282" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G282" s="3">
         <v>0</v>
       </c>
@@ -6951,7 +6949,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="283" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G283" s="1">
         <v>0</v>
       </c>
@@ -6972,7 +6970,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="284" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G284" s="3">
         <v>0</v>
       </c>
@@ -6993,7 +6991,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="285" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G285" s="1">
         <v>0</v>
       </c>
@@ -7014,7 +7012,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="286" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G286" s="3">
         <v>0</v>
       </c>
@@ -7035,7 +7033,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="287" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G287" s="1">
         <v>0</v>
       </c>
@@ -7056,7 +7054,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="288" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G288" s="3">
         <v>0</v>
       </c>
@@ -7077,7 +7075,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="289" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G289" s="1">
         <v>0</v>
       </c>
@@ -7098,7 +7096,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="290" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G290" s="3">
         <v>0</v>
       </c>
@@ -7119,7 +7117,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="291" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G291" s="1">
         <v>0</v>
       </c>
@@ -7140,7 +7138,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="292" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G292" s="3">
         <v>0</v>
       </c>
@@ -7161,7 +7159,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="293" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G293" s="1">
         <v>0</v>
       </c>
@@ -7182,7 +7180,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="294" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G294" s="3">
         <v>0</v>
       </c>
@@ -7203,7 +7201,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="295" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G295" s="1">
         <v>0</v>
       </c>
@@ -7224,7 +7222,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="296" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G296" s="3">
         <v>0</v>
       </c>
@@ -7245,7 +7243,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="297" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G297" s="1">
         <v>0</v>
       </c>
@@ -7266,7 +7264,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="298" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G298" s="3">
         <v>0</v>
       </c>
@@ -7287,7 +7285,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="299" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G299" s="1">
         <v>0</v>
       </c>
@@ -7308,7 +7306,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="300" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G300" s="3">
         <v>0</v>
       </c>
@@ -7329,7 +7327,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="301" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G301" s="1">
         <v>0</v>
       </c>
@@ -7350,7 +7348,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="302" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G302" s="3">
         <v>0</v>
       </c>
@@ -7371,7 +7369,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="303" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G303" s="1">
         <v>0</v>
       </c>
@@ -7392,7 +7390,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="304" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G304" s="3">
         <v>0</v>
       </c>
@@ -7413,7 +7411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="305" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G305" s="1">
         <v>0</v>
       </c>
@@ -7434,7 +7432,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="306" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G306" s="3">
         <v>0</v>
       </c>
@@ -7455,7 +7453,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="307" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G307" s="1">
         <v>0</v>
       </c>
@@ -7476,7 +7474,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="308" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G308" s="3">
         <v>0</v>
       </c>
@@ -7497,7 +7495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="309" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G309" s="1">
         <v>0</v>
       </c>
@@ -7518,7 +7516,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="310" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G310" s="3">
         <v>0</v>
       </c>
@@ -7539,7 +7537,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="311" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G311" s="1">
         <v>0</v>
       </c>
@@ -7560,7 +7558,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="312" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G312" s="3">
         <v>0</v>
       </c>
@@ -7581,7 +7579,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="313" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G313" s="1">
         <v>0</v>
       </c>
@@ -7602,7 +7600,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="314" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G314" s="3">
         <v>0</v>
       </c>
@@ -7623,7 +7621,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="315" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G315" s="1">
         <v>0</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="316" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G316" s="3">
         <v>0</v>
       </c>
@@ -7665,7 +7663,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="317" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G317" s="1">
         <v>0</v>
       </c>
@@ -7686,7 +7684,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="318" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G318" s="3">
         <v>0</v>
       </c>
@@ -7707,7 +7705,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="319" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G319" s="1">
         <v>0</v>
       </c>
@@ -7728,7 +7726,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="320" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G320" s="3">
         <v>0</v>
       </c>
@@ -7749,7 +7747,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="321" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G321" s="1">
         <v>0</v>
       </c>
@@ -7770,7 +7768,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="322" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G322" s="3">
         <v>0</v>
       </c>
@@ -7791,7 +7789,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="323" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G323" s="1">
         <v>0</v>
       </c>
@@ -7812,7 +7810,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="324" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G324" s="3">
         <v>0</v>
       </c>
@@ -7833,7 +7831,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="325" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G325" s="1">
         <v>0</v>
       </c>
@@ -7854,7 +7852,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="326" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G326" s="3">
         <v>0</v>
       </c>
@@ -7875,7 +7873,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="327" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G327" s="1">
         <v>0</v>
       </c>
@@ -7896,7 +7894,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="328" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G328" s="3">
         <v>0</v>
       </c>
@@ -7917,7 +7915,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="329" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G329" s="1">
         <v>0</v>
       </c>
@@ -7938,7 +7936,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="330" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G330" s="3">
         <v>0</v>
       </c>
@@ -7959,7 +7957,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="331" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G331" s="1">
         <v>0</v>
       </c>
@@ -7980,7 +7978,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="332" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G332" s="3">
         <v>0</v>
       </c>
@@ -8001,7 +7999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="333" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G333" s="1">
         <v>0</v>
       </c>
@@ -8022,7 +8020,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="334" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G334" s="3">
         <v>0</v>
       </c>
@@ -8043,7 +8041,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="335" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G335" s="1">
         <v>0</v>
       </c>
@@ -8064,7 +8062,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="336" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G336" s="3">
         <v>0</v>
       </c>
@@ -8085,7 +8083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="337" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G337" s="1">
         <v>0</v>
       </c>
@@ -8106,7 +8104,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="338" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G338" s="3">
         <v>0</v>
       </c>
@@ -8127,7 +8125,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="339" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G339" s="1">
         <v>0</v>
       </c>
@@ -8148,7 +8146,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="340" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G340" s="3">
         <v>0</v>
       </c>
@@ -8169,7 +8167,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="341" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G341" s="1">
         <v>0</v>
       </c>
@@ -8190,7 +8188,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="342" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G342" s="3">
         <v>0</v>
       </c>
@@ -8211,7 +8209,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="343" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G343" s="1">
         <v>0</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="344" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G344" s="3">
         <v>0</v>
       </c>
@@ -8253,7 +8251,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="345" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G345" s="1">
         <v>0</v>
       </c>
@@ -8274,7 +8272,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="346" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G346" s="3">
         <v>0</v>
       </c>
@@ -8295,7 +8293,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="347" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G347" s="1">
         <v>0</v>
       </c>
@@ -8316,7 +8314,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="348" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G348" s="3">
         <v>0</v>
       </c>
@@ -8337,7 +8335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="349" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G349" s="1">
         <v>0</v>
       </c>
@@ -8356,7 +8354,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="350" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G350" s="3">
         <v>0</v>
       </c>
@@ -8375,7 +8373,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="351" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G351" s="1">
         <v>0</v>
       </c>
@@ -8394,7 +8392,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="352" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G352" s="3">
         <v>0</v>
       </c>
@@ -8413,7 +8411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="353" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G353" s="1">
         <v>0</v>
       </c>
@@ -8432,7 +8430,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="354" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G354" s="3">
         <v>0</v>
       </c>
@@ -8451,7 +8449,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="355" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G355" s="1">
         <v>0</v>
       </c>
@@ -8470,7 +8468,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="356" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G356" s="3">
         <v>0</v>
       </c>
@@ -8489,7 +8487,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="357" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G357" s="1">
         <v>0</v>
       </c>
@@ -8508,7 +8506,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="358" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G358" s="3">
         <v>0</v>
       </c>
@@ -8527,7 +8525,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="359" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G359" s="1">
         <v>0</v>
       </c>
@@ -8546,7 +8544,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="360" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G360" s="3">
         <v>0</v>
       </c>
@@ -8565,7 +8563,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="361" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G361" s="1">
         <v>0</v>
       </c>
@@ -8584,7 +8582,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="362" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G362" s="3">
         <v>0</v>
       </c>
@@ -8603,7 +8601,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="363" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G363" s="1">
         <v>0</v>
       </c>
@@ -8622,7 +8620,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="364" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G364" s="3">
         <v>0</v>
       </c>
@@ -8641,7 +8639,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="365" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G365" s="1">
         <v>0</v>
       </c>
@@ -8662,7 +8660,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="366" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G366" s="3">
         <v>0</v>
       </c>
@@ -8683,7 +8681,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="367" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G367" s="1">
         <v>0</v>
       </c>
@@ -8702,7 +8700,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="368" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="7:12" x14ac:dyDescent="0.35">
       <c r="G368" s="3">
         <v>0</v>
       </c>
@@ -8732,24 +8730,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC5573-37E1-4DC4-B8D7-7461A29CAA6B}">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8772,7 +8770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8785,7 +8783,7 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5">
@@ -8813,8 +8811,16 @@
         <f>G2</f>
         <v>0.16908253631762976</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S2" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.19342359767891681</v>
+      </c>
+      <c r="T2" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.17513134851138354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8827,7 +8833,7 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="5">
@@ -8851,8 +8857,24 @@
         <f>G7</f>
         <v>0.17652879303612479</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S3" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.2012072434607646</v>
+      </c>
+      <c r="T3" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.16393442622950818</v>
+      </c>
+      <c r="U3" cm="1">
+        <f t="array" ref="U3:U92">ROUND(ABS(S3:S92-T3:T91),2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="V3">
+        <f>AVERAGE(U3:U7)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8865,7 +8887,7 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="5">
@@ -8889,8 +8911,19 @@
         <f>G12</f>
         <v>0.17519502949379889</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S4" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="T4" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.16233766233766234</v>
+      </c>
+      <c r="U4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -8903,7 +8936,7 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="5">
@@ -8927,8 +8960,19 @@
         <f>G17</f>
         <v>0.2243174206932223</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S5" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.21231422505307856</v>
+      </c>
+      <c r="T5" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.17761989342806395</v>
+      </c>
+      <c r="U5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -8941,7 +8985,7 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5">
@@ -8965,8 +9009,19 @@
         <f>G22</f>
         <v>0.21470576301494174</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S6" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.19762845849802371</v>
+      </c>
+      <c r="T6" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.16638935108153077</v>
+      </c>
+      <c r="U6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -8979,7 +9034,7 @@
       <c r="D7">
         <v>4.5</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5">
@@ -9007,8 +9062,19 @@
         <f>G27</f>
         <v>0.20388109318075642</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S7" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.19569471624266144</v>
+      </c>
+      <c r="T7" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.17793594306049823</v>
+      </c>
+      <c r="U7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -9021,7 +9087,7 @@
       <c r="D8">
         <v>4.5</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="5">
@@ -9045,8 +9111,19 @@
         <f>G32</f>
         <v>0.21702209847845239</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S8" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.20661157024793389</v>
+      </c>
+      <c r="T8" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.18691588785046728</v>
+      </c>
+      <c r="U8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9059,7 +9136,7 @@
       <c r="D9">
         <v>4.5</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="5">
@@ -9083,8 +9160,19 @@
         <f>G37</f>
         <v>0.20310126951034663</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S9" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.18975332068311196</v>
+      </c>
+      <c r="T9" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.176056338028169</v>
+      </c>
+      <c r="U9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9097,7 +9185,7 @@
       <c r="D10">
         <v>4.5</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="5">
@@ -9121,8 +9209,19 @@
         <f>G42</f>
         <v>0.20991484574826252</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S10" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="T10" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.16474464579901152</v>
+      </c>
+      <c r="U10">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9135,7 +9234,7 @@
       <c r="D11">
         <v>4.5</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="5">
@@ -9159,8 +9258,19 @@
         <f>G47</f>
         <v>0.25890381893136977</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S11" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.19762845849802371</v>
+      </c>
+      <c r="T11" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="U11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -9173,7 +9283,7 @@
       <c r="D12">
         <v>5</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="5">
@@ -9201,8 +9311,19 @@
         <f>G52</f>
         <v>0.27089636858332561</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S12" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.19083969465648856</v>
+      </c>
+      <c r="T12" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.16722408026755853</v>
+      </c>
+      <c r="U12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -9215,7 +9336,7 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="5">
@@ -9239,8 +9360,19 @@
         <f>G57</f>
         <v>0.25501688594178085</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S13" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.19493177387914229</v>
+      </c>
+      <c r="T13" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.17953321364452424</v>
+      </c>
+      <c r="U13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -9253,7 +9385,7 @@
       <c r="D14">
         <v>5</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="5">
@@ -9277,8 +9409,19 @@
         <f>G62</f>
         <v>0.32553906121898857</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S14" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.17985611510791366</v>
+      </c>
+      <c r="T14" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.1718213058419244</v>
+      </c>
+      <c r="U14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9291,7 +9434,7 @@
       <c r="D15">
         <v>5</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15" s="5">
@@ -9313,10 +9456,21 @@
       </c>
       <c r="M15" s="5">
         <f>G67</f>
-        <v>0.3197130726654927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.32290496525830698</v>
+      </c>
+      <c r="S15" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.18587360594795538</v>
+      </c>
+      <c r="T15" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.18761726078799248</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -9329,7 +9483,7 @@
       <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="5">
@@ -9353,8 +9507,19 @@
         <f>G72</f>
         <v>0.31134728011750629</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S16" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.19083969465648856</v>
+      </c>
+      <c r="T16" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.1697792869269949</v>
+      </c>
+      <c r="U16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -9367,7 +9532,7 @@
       <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="5">
@@ -9395,8 +9560,19 @@
         <f>G77</f>
         <v>0.32432783892630201</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S17" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.23584905660377359</v>
+      </c>
+      <c r="T17" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.22573363431151242</v>
+      </c>
+      <c r="U17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -9409,7 +9585,7 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="5">
@@ -9433,8 +9609,19 @@
         <f>G82</f>
         <v>0.29834748435094671</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S18" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.21881838074398249</v>
+      </c>
+      <c r="T18" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.22271714922048999</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -9447,7 +9634,7 @@
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="F19" s="5">
@@ -9471,8 +9658,19 @@
         <f>G87</f>
         <v>0.30628586591465112</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S19" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.22675736961451248</v>
+      </c>
+      <c r="T19" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.23474178403755869</v>
+      </c>
+      <c r="U19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -9485,15 +9683,26 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.21008403361344538</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S20" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.23474178403755869</v>
+      </c>
+      <c r="T20" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21008403361344538</v>
+      </c>
+      <c r="U20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -9506,15 +9715,26 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.22831050228310501</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S21" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.20964360587002095</v>
+      </c>
+      <c r="T21" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.22831050228310501</v>
+      </c>
+      <c r="U21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9527,7 +9747,7 @@
       <c r="D22">
         <v>4.5</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="5">
@@ -9538,8 +9758,19 @@
         <f t="shared" si="0"/>
         <v>0.21470576301494174</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S22" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.22675736961451248</v>
+      </c>
+      <c r="T22" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21367521367521367</v>
+      </c>
+      <c r="U22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -9552,15 +9783,26 @@
       <c r="D23">
         <v>4.5</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.22727272727272727</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S23" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.24271844660194175</v>
+      </c>
+      <c r="T23" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="U23">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9573,15 +9815,26 @@
       <c r="D24">
         <v>4.5</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.20703933747412009</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S24" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.24449877750611246</v>
+      </c>
+      <c r="T24" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.20703933747412009</v>
+      </c>
+      <c r="U24">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -9594,15 +9847,26 @@
       <c r="D25">
         <v>4.5</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.20576131687242799</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S25" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.24038461538461539</v>
+      </c>
+      <c r="T25" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.20576131687242799</v>
+      </c>
+      <c r="U25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -9615,15 +9879,26 @@
       <c r="D26">
         <v>4.5</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.21978021978021978</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S26" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.2364066193853428</v>
+      </c>
+      <c r="T26" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21978021978021978</v>
+      </c>
+      <c r="U26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -9636,7 +9911,7 @@
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="5">
@@ -9647,8 +9922,19 @@
         <f t="shared" si="0"/>
         <v>0.20388109318075642</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S27" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.22935779816513763</v>
+      </c>
+      <c r="T27" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="U27">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -9661,15 +9947,26 @@
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.21413276231263384</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S28" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.22935779816513763</v>
+      </c>
+      <c r="T28" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21413276231263384</v>
+      </c>
+      <c r="U28">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -9682,15 +9979,26 @@
       <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.21367521367521367</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S29" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.23980815347721823</v>
+      </c>
+      <c r="T29" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21367521367521367</v>
+      </c>
+      <c r="U29">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -9703,15 +10011,26 @@
       <c r="D30">
         <v>5</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.20661157024793389</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S30" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.24449877750611246</v>
+      </c>
+      <c r="T30" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.20661157024793389</v>
+      </c>
+      <c r="U30">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -9724,15 +10043,26 @@
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.19267822736030829</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="S31" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.23364485981308411</v>
+      </c>
+      <c r="T31" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.19267822736030829</v>
+      </c>
+      <c r="U31">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
@@ -9745,7 +10075,7 @@
       <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="5">
@@ -9756,8 +10086,19 @@
         <f t="shared" si="0"/>
         <v>0.21702209847845239</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S32" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.24875621890547264</v>
+      </c>
+      <c r="T32" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21978021978021978</v>
+      </c>
+      <c r="U32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1</v>
       </c>
@@ -9770,15 +10111,26 @@
       <c r="D33">
         <v>4</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" t="s">
         <v>36</v>
       </c>
       <c r="F33" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.21231422505307856</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S33" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="T33" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21231422505307856</v>
+      </c>
+      <c r="U33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -9791,15 +10143,26 @@
       <c r="D34">
         <v>4</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" t="s">
         <v>36</v>
       </c>
       <c r="F34" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.21231422505307856</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S34" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.24752475247524752</v>
+      </c>
+      <c r="T34" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21231422505307856</v>
+      </c>
+      <c r="U34">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -9812,15 +10175,26 @@
       <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.2247191011235955</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S35" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="T35" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.2247191011235955</v>
+      </c>
+      <c r="U35">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
@@ -9833,15 +10207,26 @@
       <c r="D36">
         <v>4</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.21598272138228941</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S36" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="T36" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21598272138228941</v>
+      </c>
+      <c r="U36">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -9854,7 +10239,7 @@
       <c r="D37">
         <v>4.5</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="5">
@@ -9865,8 +10250,19 @@
         <f t="shared" si="0"/>
         <v>0.20310126951034663</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S37" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="T37" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="U37">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -9879,15 +10275,26 @@
       <c r="D38">
         <v>4.5</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.2032520325203252</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S38" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.25510204081632654</v>
+      </c>
+      <c r="T38" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.2032520325203252</v>
+      </c>
+      <c r="U38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -9900,15 +10307,26 @@
       <c r="D39">
         <v>4.5</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" t="s">
         <v>41</v>
       </c>
       <c r="F39" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.19607843137254902</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S39" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.2544529262086514</v>
+      </c>
+      <c r="T39" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.19607843137254902</v>
+      </c>
+      <c r="U39">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1</v>
       </c>
@@ -9921,15 +10339,26 @@
       <c r="D40">
         <v>4.5</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" t="s">
         <v>29</v>
       </c>
       <c r="F40" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.20703933747412009</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S40" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.2785515320334262</v>
+      </c>
+      <c r="T40" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.20703933747412009</v>
+      </c>
+      <c r="U40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -9942,15 +10371,26 @@
       <c r="D41">
         <v>4.5</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" t="s">
         <v>42</v>
       </c>
       <c r="F41" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.20080321285140562</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S41" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.24509803921568626</v>
+      </c>
+      <c r="T41" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.20080321285140562</v>
+      </c>
+      <c r="U41">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -9963,7 +10403,7 @@
       <c r="D42">
         <v>5</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="5">
@@ -9974,8 +10414,19 @@
         <f t="shared" si="0"/>
         <v>0.20991484574826252</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S42" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.27548209366391185</v>
+      </c>
+      <c r="T42" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.20576131687242799</v>
+      </c>
+      <c r="U42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
@@ -9988,15 +10439,26 @@
       <c r="D43">
         <v>5</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" t="s">
         <v>43</v>
       </c>
       <c r="F43" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.19920318725099601</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S43" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.26881720430107525</v>
+      </c>
+      <c r="T43" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.19920318725099601</v>
+      </c>
+      <c r="U43">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
@@ -10009,15 +10471,26 @@
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.22172949002217296</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S44" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.25839793281653745</v>
+      </c>
+      <c r="T44" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.22172949002217296</v>
+      </c>
+      <c r="U44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -10030,15 +10503,26 @@
       <c r="D45">
         <v>5</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.20920502092050208</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S45" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="T45" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.20920502092050208</v>
+      </c>
+      <c r="U45">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -10051,15 +10535,26 @@
       <c r="D46">
         <v>5</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" t="s">
         <v>27</v>
       </c>
       <c r="F46" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.21367521367521367</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S46" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.24449877750611246</v>
+      </c>
+      <c r="T46" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.21367521367521367</v>
+      </c>
+      <c r="U46">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
@@ -10072,7 +10567,7 @@
       <c r="D47">
         <v>4</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="E47" t="s">
         <v>46</v>
       </c>
       <c r="F47" s="5">
@@ -10083,8 +10578,19 @@
         <f t="shared" si="0"/>
         <v>0.25890381893136977</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S47" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.32404406999351915</v>
+      </c>
+      <c r="T47" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.2586652871184687</v>
+      </c>
+      <c r="U47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1</v>
       </c>
@@ -10097,15 +10603,26 @@
       <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.2560163850486431</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S48" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.31191515907673112</v>
+      </c>
+      <c r="T48" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.2560163850486431</v>
+      </c>
+      <c r="U48">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
@@ -10118,15 +10635,26 @@
       <c r="D49">
         <v>4</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" t="s">
         <v>48</v>
       </c>
       <c r="F49" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.25510204081632654</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S49" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.30284675953967294</v>
+      </c>
+      <c r="T49" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.25510204081632654</v>
+      </c>
+      <c r="U49">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
@@ -10139,15 +10667,26 @@
       <c r="D50">
         <v>4</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="E50" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.26553372278279341</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S50" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.3306878306878307</v>
+      </c>
+      <c r="T50" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.26553372278279341</v>
+      </c>
+      <c r="U50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
@@ -10160,15 +10699,26 @@
       <c r="D51">
         <v>4</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="E51" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.25920165889061691</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S51" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.31605562579013907</v>
+      </c>
+      <c r="T51" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.25920165889061691</v>
+      </c>
+      <c r="U51">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1</v>
       </c>
@@ -10181,7 +10731,7 @@
       <c r="D52">
         <v>4.5</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" t="s">
         <v>51</v>
       </c>
       <c r="F52" s="5">
@@ -10192,8 +10742,19 @@
         <f t="shared" si="0"/>
         <v>0.27089636858332561</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S52" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.30674846625766872</v>
+      </c>
+      <c r="T52" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.27203482045701849</v>
+      </c>
+      <c r="U52">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
@@ -10206,15 +10767,26 @@
       <c r="D53">
         <v>4.5</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E53" t="s">
         <v>52</v>
       </c>
       <c r="F53" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.26455026455026454</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S53" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.31308703819661865</v>
+      </c>
+      <c r="T53" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.26455026455026454</v>
+      </c>
+      <c r="U53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1</v>
       </c>
@@ -10227,15 +10799,26 @@
       <c r="D54">
         <v>4.5</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.27203482045701849</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S54" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.30656039239730226</v>
+      </c>
+      <c r="T54" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.27203482045701849</v>
+      </c>
+      <c r="U54">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
@@ -10248,15 +10831,26 @@
       <c r="D55">
         <v>4.5</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" t="s">
         <v>53</v>
       </c>
       <c r="F55" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.27173913043478259</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S55" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.31289111389236546</v>
+      </c>
+      <c r="T55" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.27173913043478259</v>
+      </c>
+      <c r="U55">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
@@ -10269,15 +10863,26 @@
       <c r="D56">
         <v>4.5</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" t="s">
         <v>54</v>
       </c>
       <c r="F56" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.27412280701754388</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S56" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="T56" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.27412280701754388</v>
+      </c>
+      <c r="U56">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1</v>
       </c>
@@ -10290,7 +10895,7 @@
       <c r="D57">
         <v>5</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E57" t="s">
         <v>55</v>
       </c>
       <c r="F57" s="5">
@@ -10301,8 +10906,19 @@
         <f t="shared" si="0"/>
         <v>0.25501688594178085</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S57" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.31505986137366099</v>
+      </c>
+      <c r="T57" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.25974025974025972</v>
+      </c>
+      <c r="U57">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
@@ -10315,15 +10931,26 @@
       <c r="D58">
         <v>5</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="E58" t="s">
         <v>56</v>
       </c>
       <c r="F58" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.25113008538422904</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S58" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.31230480949406619</v>
+      </c>
+      <c r="T58" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.25113008538422904</v>
+      </c>
+      <c r="U58">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
@@ -10336,15 +10963,26 @@
       <c r="D59">
         <v>5</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.26178010471204188</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S59" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.32195750160978753</v>
+      </c>
+      <c r="T59" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.26178010471204188</v>
+      </c>
+      <c r="U59">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
@@ -10357,15 +10995,26 @@
       <c r="D60">
         <v>5</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E60" t="s">
         <v>58</v>
       </c>
       <c r="F60" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.25853154084798347</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S60" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.32404406999351915</v>
+      </c>
+      <c r="T60" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.25853154084798347</v>
+      </c>
+      <c r="U60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
@@ -10378,15 +11027,26 @@
       <c r="D61">
         <v>5</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.24390243902439024</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S61" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.32133676092544988</v>
+      </c>
+      <c r="T61" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="U61">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
@@ -10399,7 +11059,7 @@
       <c r="D62">
         <v>4</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="E62" t="s">
         <v>60</v>
       </c>
       <c r="F62" s="5">
@@ -10410,8 +11070,19 @@
         <f t="shared" si="0"/>
         <v>0.32553906121898857</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S62" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.35410764872521244</v>
+      </c>
+      <c r="T62" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32873109796186717</v>
+      </c>
+      <c r="U62">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1</v>
       </c>
@@ -10424,15 +11095,26 @@
       <c r="D63">
         <v>4</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63">
         <v>1548</v>
       </c>
       <c r="F63" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.32299741602067183</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S63" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.36496350364963503</v>
+      </c>
+      <c r="T63" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32299741602067183</v>
+      </c>
+      <c r="U63">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1</v>
       </c>
@@ -10445,15 +11127,26 @@
       <c r="D64">
         <v>4</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="E64" t="s">
         <v>61</v>
       </c>
       <c r="F64" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.32530904359141183</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S64" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.36683785766691124</v>
+      </c>
+      <c r="T64" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32530904359141183</v>
+      </c>
+      <c r="U64">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
@@ -10466,15 +11159,26 @@
       <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65">
         <v>1525</v>
       </c>
       <c r="F65" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.32786885245901637</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S65" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.37009622501850481</v>
+      </c>
+      <c r="T65" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32786885245901637</v>
+      </c>
+      <c r="U65">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
@@ -10487,15 +11191,26 @@
       <c r="D66">
         <v>4</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66">
         <v>1549</v>
       </c>
       <c r="F66" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.32278889606197547</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S66" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.35790980672870437</v>
+      </c>
+      <c r="T66" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32278889606197547</v>
+      </c>
+      <c r="U66">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1</v>
       </c>
@@ -10508,7 +11223,7 @@
       <c r="D67">
         <v>4.5</v>
       </c>
-      <c r="E67" s="12" t="s">
+      <c r="E67" t="s">
         <v>62</v>
       </c>
       <c r="F67" s="5">
@@ -10517,10 +11232,21 @@
       </c>
       <c r="G67" s="5">
         <f t="shared" ref="G67:G87" si="1">AVERAGE(F67:F71)</f>
-        <v>0.3197130726654927</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.32290496525830698</v>
+      </c>
+      <c r="S67" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.33579583613163194</v>
+      </c>
+      <c r="T67" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32509752925877761</v>
+      </c>
+      <c r="U67">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1</v>
       </c>
@@ -10533,15 +11259,26 @@
       <c r="D68">
         <v>4.5</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E68" t="s">
         <v>63</v>
       </c>
       <c r="F68" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.32425421530479898</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S68" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T68" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32425421530479898</v>
+      </c>
+      <c r="U68">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
@@ -10554,15 +11291,26 @@
       <c r="D69">
         <v>4.5</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E69" t="s">
         <v>64</v>
       </c>
       <c r="F69" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.32701111837802488</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S69" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.33534540576794097</v>
+      </c>
+      <c r="T69" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32701111837802488</v>
+      </c>
+      <c r="U69">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1</v>
       </c>
@@ -10575,15 +11323,26 @@
       <c r="D70">
         <v>4.5</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>65</v>
+      <c r="E70">
+        <v>1617</v>
       </c>
       <c r="F70" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
-        <v>0.2932551319648094</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.30921459492888065</v>
+      </c>
+      <c r="S70" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.33178500331785005</v>
+      </c>
+      <c r="T70" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.30921459492888065</v>
+      </c>
+      <c r="U70">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
@@ -10596,15 +11355,26 @@
       <c r="D71">
         <v>4.5</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>66</v>
+      <c r="E71" t="s">
+        <v>65</v>
       </c>
       <c r="F71" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.32894736842105265</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S71" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.32637075718015668</v>
+      </c>
+      <c r="T71" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.32894736842105265</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1</v>
       </c>
@@ -10617,7 +11387,7 @@
       <c r="D72">
         <v>5</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72">
         <v>1611</v>
       </c>
       <c r="F72" s="5">
@@ -10628,8 +11398,19 @@
         <f t="shared" si="1"/>
         <v>0.31134728011750629</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S72" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.37878787878787878</v>
+      </c>
+      <c r="T72" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.31036623215394166</v>
+      </c>
+      <c r="U72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1</v>
       </c>
@@ -10642,15 +11423,26 @@
       <c r="D73">
         <v>5</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>67</v>
+      <c r="E73" t="s">
+        <v>66</v>
       </c>
       <c r="F73" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.31075201988812928</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S73" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.36101083032490977</v>
+      </c>
+      <c r="T73" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.31075201988812928</v>
+      </c>
+      <c r="U73">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1</v>
       </c>
@@ -10663,15 +11455,26 @@
       <c r="D74">
         <v>5</v>
       </c>
-      <c r="E74" s="12" t="s">
-        <v>68</v>
+      <c r="E74" t="s">
+        <v>67</v>
       </c>
       <c r="F74" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.30845157310302285</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S74" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.3711952487008166</v>
+      </c>
+      <c r="T74" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.30845157310302285</v>
+      </c>
+      <c r="U74">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -10684,15 +11487,26 @@
       <c r="D75">
         <v>5</v>
       </c>
-      <c r="E75" s="12" t="s">
-        <v>69</v>
+      <c r="E75" t="s">
+        <v>68</v>
       </c>
       <c r="F75" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.31928480204342274</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S75" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.35637918745545261</v>
+      </c>
+      <c r="T75" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.31928480204342274</v>
+      </c>
+      <c r="U75">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
@@ -10705,15 +11519,26 @@
       <c r="D76">
         <v>5</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>70</v>
+      <c r="E76" t="s">
+        <v>69</v>
       </c>
       <c r="F76" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.30788177339901479</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S76" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.3762227238525207</v>
+      </c>
+      <c r="T76" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.30788177339901479</v>
+      </c>
+      <c r="U76">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1</v>
       </c>
@@ -10726,8 +11551,8 @@
       <c r="D77">
         <v>4</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>71</v>
+      <c r="E77" t="s">
+        <v>70</v>
       </c>
       <c r="F77" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
@@ -10737,8 +11562,19 @@
         <f t="shared" si="1"/>
         <v>0.32432783892630201</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S77" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.41911148365465212</v>
+      </c>
+      <c r="T77" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.33422459893048129</v>
+      </c>
+      <c r="U77">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -10751,15 +11587,26 @@
       <c r="D78">
         <v>4</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>72</v>
+      <c r="E78" t="s">
+        <v>71</v>
       </c>
       <c r="F78" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.33222591362126247</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S78" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.41425020712510358</v>
+      </c>
+      <c r="T78" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.33222591362126247</v>
+      </c>
+      <c r="U78">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1</v>
       </c>
@@ -10772,15 +11619,26 @@
       <c r="D79">
         <v>4</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>73</v>
+      <c r="E79" t="s">
+        <v>72</v>
       </c>
       <c r="F79" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.33090668431502318</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S79" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.42517006802721086</v>
+      </c>
+      <c r="T79" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.33090668431502318</v>
+      </c>
+      <c r="U79">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1</v>
       </c>
@@ -10793,15 +11651,26 @@
       <c r="D80">
         <v>4</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>74</v>
+      <c r="E80" t="s">
+        <v>73</v>
       </c>
       <c r="F80" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.30902348578491967</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S80" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.4219409282700422</v>
+      </c>
+      <c r="T80" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.30902348578491967</v>
+      </c>
+      <c r="U80">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1</v>
       </c>
@@ -10814,15 +11683,26 @@
       <c r="D81">
         <v>4</v>
       </c>
-      <c r="E81" s="12" t="s">
-        <v>75</v>
+      <c r="E81" t="s">
+        <v>74</v>
       </c>
       <c r="F81" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.31525851197982346</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S81" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.40584415584415584</v>
+      </c>
+      <c r="T81" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.31525851197982346</v>
+      </c>
+      <c r="U81">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -10835,8 +11715,8 @@
       <c r="D82">
         <v>4.5</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>76</v>
+      <c r="E82" t="s">
+        <v>75</v>
       </c>
       <c r="F82" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
@@ -10846,8 +11726,19 @@
         <f t="shared" si="1"/>
         <v>0.29834748435094671</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S82" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.41459369817578773</v>
+      </c>
+      <c r="T82" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.28506271379703535</v>
+      </c>
+      <c r="U82">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
@@ -10860,15 +11751,26 @@
       <c r="D83">
         <v>4.5</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>77</v>
+      <c r="E83" t="s">
+        <v>76</v>
       </c>
       <c r="F83" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.29868578255675032</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S83" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.43327556325823224</v>
+      </c>
+      <c r="T83" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.29868578255675032</v>
+      </c>
+      <c r="U83">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
@@ -10881,15 +11783,26 @@
       <c r="D84">
         <v>4.5</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>78</v>
+      <c r="E84" t="s">
+        <v>77</v>
       </c>
       <c r="F84" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.31685678073510776</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S84" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.3968253968253968</v>
+      </c>
+      <c r="T84" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.31685678073510776</v>
+      </c>
+      <c r="U84">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
@@ -10902,15 +11815,26 @@
       <c r="D85">
         <v>4.5</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>79</v>
+      <c r="E85" t="s">
+        <v>78</v>
       </c>
       <c r="F85" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.30211480362537763</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S85" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="T85" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.30211480362537763</v>
+      </c>
+      <c r="U85">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1</v>
       </c>
@@ -10923,15 +11847,26 @@
       <c r="D86">
         <v>4.5</v>
       </c>
-      <c r="E86" s="12" t="s">
-        <v>80</v>
+      <c r="E86" t="s">
+        <v>79</v>
       </c>
       <c r="F86" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.28901734104046245</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S86" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.41459369817578773</v>
+      </c>
+      <c r="T86" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.28901734104046245</v>
+      </c>
+      <c r="U86">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1</v>
       </c>
@@ -10944,8 +11879,8 @@
       <c r="D87">
         <v>5</v>
       </c>
-      <c r="E87" s="12" t="s">
-        <v>81</v>
+      <c r="E87" t="s">
+        <v>80</v>
       </c>
       <c r="F87" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
@@ -10955,8 +11890,19 @@
         <f t="shared" si="1"/>
         <v>0.30628586591465112</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S87" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.4163197335553705</v>
+      </c>
+      <c r="T87" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.31486146095717882</v>
+      </c>
+      <c r="U87">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1</v>
       </c>
@@ -10969,15 +11915,26 @@
       <c r="D88">
         <v>5</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>82</v>
+      <c r="E88" t="s">
+        <v>81</v>
       </c>
       <c r="F88" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.30864197530864196</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S88" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.39308176100628933</v>
+      </c>
+      <c r="T88" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.30864197530864196</v>
+      </c>
+      <c r="U88">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -10990,15 +11947,26 @@
       <c r="D89">
         <v>5</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>79</v>
+      <c r="E89" t="s">
+        <v>78</v>
       </c>
       <c r="F89" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.30211480362537763</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S89" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.41876046901172531</v>
+      </c>
+      <c r="T89" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.30211480362537763</v>
+      </c>
+      <c r="U89">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1</v>
       </c>
@@ -11011,15 +11979,26 @@
       <c r="D90">
         <v>5</v>
       </c>
-      <c r="E90" s="12" t="s">
-        <v>77</v>
+      <c r="E90" t="s">
+        <v>76</v>
       </c>
       <c r="F90" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.29868578255675032</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="S90" s="41">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.40096230954290296</v>
+      </c>
+      <c r="T90" s="41">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.29868578255675032</v>
+      </c>
+      <c r="U90">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
@@ -11032,12 +12011,36 @@
       <c r="D91">
         <v>5</v>
       </c>
-      <c r="E91" s="12" t="s">
-        <v>83</v>
+      <c r="E91" t="s">
+        <v>82</v>
       </c>
       <c r="F91" s="5">
         <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
         <v>0.30712530712530711</v>
+      </c>
+      <c r="S91" s="40">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>0.4065040650406504</v>
+      </c>
+      <c r="T91" s="40">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>0.30712530712530711</v>
+      </c>
+      <c r="U91">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S92" s="41" t="e">
+        <f>exploration_results[[#This Row],[Cars]]/exploration_results[[#This Row],[Iter]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T92" s="41" t="e">
+        <f>exploration_results__2[[#This Row],[Cars]]/exploration_results__2[[#This Row],[Iter]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U92" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -11052,918 +12055,918 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F31C389-4C6A-4E0A-B8A0-B9496F28ED12}">
   <dimension ref="C1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="40" t="s">
+    <row r="1" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="3:25" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="M2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="R2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="S2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="U2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="U2" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="X2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="Y2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="3:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="39">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>100</v>
-      </c>
-      <c r="E3" s="19">
-        <v>5</v>
-      </c>
-      <c r="F3" s="19">
+    </row>
+    <row r="3" spans="3:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>100</v>
+      </c>
+      <c r="E3" s="18">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18">
         <v>4</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>0.1993762433996952</v>
       </c>
-      <c r="I3" s="39">
-        <v>1</v>
-      </c>
-      <c r="J3" s="23">
-        <v>100</v>
-      </c>
-      <c r="K3" s="23">
-        <v>5</v>
-      </c>
-      <c r="L3" s="23">
+      <c r="I3" s="38">
+        <v>1</v>
+      </c>
+      <c r="J3" s="22">
+        <v>100</v>
+      </c>
+      <c r="K3" s="22">
+        <v>5</v>
+      </c>
+      <c r="L3" s="22">
         <v>4</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="23">
         <v>0.17</v>
       </c>
-      <c r="O3" s="39">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19">
-        <v>500</v>
-      </c>
-      <c r="Q3" s="19">
-        <v>5</v>
-      </c>
-      <c r="R3" s="19">
+      <c r="O3" s="38">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>5</v>
+      </c>
+      <c r="R3" s="18">
         <v>4</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="19">
         <v>0.31710988901757858</v>
       </c>
-      <c r="U3" s="39">
-        <v>1</v>
-      </c>
-      <c r="V3" s="23">
-        <v>500</v>
-      </c>
-      <c r="W3" s="23">
-        <v>5</v>
-      </c>
-      <c r="X3" s="23">
+      <c r="U3" s="38">
+        <v>1</v>
+      </c>
+      <c r="V3" s="22">
+        <v>500</v>
+      </c>
+      <c r="W3" s="22">
+        <v>5</v>
+      </c>
+      <c r="X3" s="22">
         <v>4</v>
       </c>
-      <c r="Y3" s="24">
+      <c r="Y3" s="23">
         <v>0.25890381893136977</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C4" s="39">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>100</v>
-      </c>
-      <c r="E4" s="21">
-        <v>5</v>
-      </c>
-      <c r="F4" s="21">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C4" s="38">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>100</v>
+      </c>
+      <c r="E4" s="20">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20">
         <v>4.5</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>0.19567346219094994</v>
       </c>
-      <c r="I4" s="39">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25">
-        <v>100</v>
-      </c>
-      <c r="K4" s="25">
-        <v>5</v>
-      </c>
-      <c r="L4" s="25">
+      <c r="I4" s="38">
+        <v>1</v>
+      </c>
+      <c r="J4" s="24">
+        <v>100</v>
+      </c>
+      <c r="K4" s="24">
+        <v>5</v>
+      </c>
+      <c r="L4" s="24">
         <v>4.5</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>0.17652879303612501</v>
       </c>
-      <c r="O4" s="39">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21">
-        <v>500</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>5</v>
-      </c>
-      <c r="R4" s="21">
+      <c r="O4" s="38">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>5</v>
+      </c>
+      <c r="R4" s="20">
         <v>4.5</v>
       </c>
-      <c r="S4" s="22">
+      <c r="S4" s="21">
         <v>0.30846346275485159</v>
       </c>
-      <c r="U4" s="39">
-        <v>1</v>
-      </c>
-      <c r="V4" s="25">
-        <v>500</v>
-      </c>
-      <c r="W4" s="25">
-        <v>5</v>
-      </c>
-      <c r="X4" s="25">
+      <c r="U4" s="38">
+        <v>1</v>
+      </c>
+      <c r="V4" s="24">
+        <v>500</v>
+      </c>
+      <c r="W4" s="24">
+        <v>5</v>
+      </c>
+      <c r="X4" s="24">
         <v>4.5</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="25">
         <v>0.27089636858332561</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="39">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>100</v>
-      </c>
-      <c r="E5" s="21">
-        <v>5</v>
-      </c>
-      <c r="F5" s="21">
-        <v>5</v>
-      </c>
-      <c r="G5" s="22">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C5" s="38">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
+        <v>100</v>
+      </c>
+      <c r="E5" s="20">
+        <v>5</v>
+      </c>
+      <c r="F5" s="20">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21">
         <v>0.18846817684959766</v>
       </c>
-      <c r="I5" s="39">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25">
-        <v>100</v>
-      </c>
-      <c r="K5" s="25">
-        <v>5</v>
-      </c>
-      <c r="L5" s="25">
-        <v>5</v>
-      </c>
-      <c r="M5" s="26">
+      <c r="I5" s="38">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24">
+        <v>100</v>
+      </c>
+      <c r="K5" s="24">
+        <v>5</v>
+      </c>
+      <c r="L5" s="24">
+        <v>5</v>
+      </c>
+      <c r="M5" s="25">
         <v>0.17519502949379889</v>
       </c>
-      <c r="O5" s="39">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <v>500</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>5</v>
-      </c>
-      <c r="R5" s="21">
-        <v>5</v>
-      </c>
-      <c r="S5" s="22">
+      <c r="O5" s="38">
+        <v>0</v>
+      </c>
+      <c r="P5" s="20">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>5</v>
+      </c>
+      <c r="R5" s="20">
+        <v>5</v>
+      </c>
+      <c r="S5" s="21">
         <v>0.31894060067929675</v>
       </c>
-      <c r="U5" s="39">
-        <v>1</v>
-      </c>
-      <c r="V5" s="25">
-        <v>500</v>
-      </c>
-      <c r="W5" s="25">
-        <v>5</v>
-      </c>
-      <c r="X5" s="25">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="26">
+      <c r="U5" s="38">
+        <v>1</v>
+      </c>
+      <c r="V5" s="24">
+        <v>500</v>
+      </c>
+      <c r="W5" s="24">
+        <v>5</v>
+      </c>
+      <c r="X5" s="24">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="25">
         <v>0.25501688594178085</v>
       </c>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="39">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>100</v>
-      </c>
-      <c r="E6" s="17">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C6" s="38">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>100</v>
+      </c>
+      <c r="E6" s="16">
         <v>6</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>4</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="17">
         <v>0.22516203937396967</v>
       </c>
-      <c r="I6" s="39">
-        <v>1</v>
-      </c>
-      <c r="J6" s="27">
-        <v>100</v>
-      </c>
-      <c r="K6" s="27">
+      <c r="I6" s="38">
+        <v>1</v>
+      </c>
+      <c r="J6" s="26">
+        <v>100</v>
+      </c>
+      <c r="K6" s="26">
         <v>6</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="26">
         <v>4</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="27">
         <v>0.2243174206932223</v>
       </c>
-      <c r="O6" s="39">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
-        <v>500</v>
-      </c>
-      <c r="Q6" s="17">
+      <c r="O6" s="38">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="16">
         <v>6</v>
       </c>
-      <c r="R6" s="17">
+      <c r="R6" s="16">
         <v>4</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="17">
         <v>0.36278300835779353</v>
       </c>
-      <c r="U6" s="39">
-        <v>1</v>
-      </c>
-      <c r="V6" s="33">
-        <v>500</v>
-      </c>
-      <c r="W6" s="33">
+      <c r="U6" s="38">
+        <v>1</v>
+      </c>
+      <c r="V6" s="32">
+        <v>500</v>
+      </c>
+      <c r="W6" s="32">
         <v>6</v>
       </c>
-      <c r="X6" s="33">
+      <c r="X6" s="32">
         <v>4</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Y6" s="33">
         <v>0.32553906121898857</v>
       </c>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="39">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>100</v>
-      </c>
-      <c r="E7" s="17">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C7" s="38">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>100</v>
+      </c>
+      <c r="E7" s="16">
         <v>6</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>4.5</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>0.23815316569850498</v>
       </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="J7" s="27">
-        <v>100</v>
-      </c>
-      <c r="K7" s="27">
+      <c r="I7" s="38">
+        <v>1</v>
+      </c>
+      <c r="J7" s="26">
+        <v>100</v>
+      </c>
+      <c r="K7" s="26">
         <v>6</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <v>4.5</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="27">
         <v>0.21470576301494174</v>
       </c>
-      <c r="O7" s="39">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
-        <v>500</v>
-      </c>
-      <c r="Q7" s="17">
+      <c r="O7" s="38">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="16">
         <v>6</v>
       </c>
-      <c r="R7" s="17">
+      <c r="R7" s="16">
         <v>4.5</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="17">
         <v>0.3325260671461826</v>
       </c>
-      <c r="U7" s="39">
-        <v>1</v>
-      </c>
-      <c r="V7" s="33">
-        <v>500</v>
-      </c>
-      <c r="W7" s="33">
+      <c r="U7" s="38">
+        <v>1</v>
+      </c>
+      <c r="V7" s="32">
+        <v>500</v>
+      </c>
+      <c r="W7" s="32">
         <v>6</v>
       </c>
-      <c r="X7" s="33">
+      <c r="X7" s="32">
         <v>4.5</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="33">
         <v>0.3197130726654927</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="39">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>100</v>
-      </c>
-      <c r="E8" s="17">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C8" s="38">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>100</v>
+      </c>
+      <c r="E8" s="16">
         <v>6</v>
       </c>
-      <c r="F8" s="17">
-        <v>5</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="F8" s="16">
+        <v>5</v>
+      </c>
+      <c r="G8" s="17">
         <v>0.235333477425338</v>
       </c>
-      <c r="I8" s="39">
-        <v>1</v>
-      </c>
-      <c r="J8" s="27">
-        <v>100</v>
-      </c>
-      <c r="K8" s="27">
+      <c r="I8" s="38">
+        <v>1</v>
+      </c>
+      <c r="J8" s="26">
+        <v>100</v>
+      </c>
+      <c r="K8" s="26">
         <v>6</v>
       </c>
-      <c r="L8" s="27">
-        <v>5</v>
-      </c>
-      <c r="M8" s="28">
+      <c r="L8" s="26">
+        <v>5</v>
+      </c>
+      <c r="M8" s="27">
         <v>0.20388109318075642</v>
       </c>
-      <c r="O8" s="39">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <v>500</v>
-      </c>
-      <c r="Q8" s="17">
+      <c r="O8" s="38">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="16">
         <v>6</v>
       </c>
-      <c r="R8" s="17">
-        <v>5</v>
-      </c>
-      <c r="S8" s="18">
+      <c r="R8" s="16">
+        <v>5</v>
+      </c>
+      <c r="S8" s="17">
         <v>0.36871917382431574</v>
       </c>
-      <c r="U8" s="39">
-        <v>1</v>
-      </c>
-      <c r="V8" s="33">
-        <v>500</v>
-      </c>
-      <c r="W8" s="33">
+      <c r="U8" s="38">
+        <v>1</v>
+      </c>
+      <c r="V8" s="32">
+        <v>500</v>
+      </c>
+      <c r="W8" s="32">
         <v>6</v>
       </c>
-      <c r="X8" s="33">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="34">
+      <c r="X8" s="32">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="33">
         <v>0.31134728011750629</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="39">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>100</v>
-      </c>
-      <c r="E9" s="13">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C9" s="38">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>100</v>
+      </c>
+      <c r="E9" s="12">
         <v>7</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>4</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.25541797064410598</v>
       </c>
-      <c r="I9" s="39">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29">
-        <v>100</v>
-      </c>
-      <c r="K9" s="29">
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="28">
+        <v>100</v>
+      </c>
+      <c r="K9" s="28">
         <v>7</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="28">
         <v>4</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="29">
         <v>0.21702209847845239</v>
       </c>
-      <c r="O9" s="39">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
-        <v>500</v>
-      </c>
-      <c r="Q9" s="13">
+      <c r="O9" s="38">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="12">
         <v>7</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="12">
         <v>4</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="13">
         <v>0.41726336858423291</v>
       </c>
-      <c r="U9" s="39">
-        <v>1</v>
-      </c>
-      <c r="V9" s="35">
-        <v>500</v>
-      </c>
-      <c r="W9" s="35">
+      <c r="U9" s="38">
+        <v>1</v>
+      </c>
+      <c r="V9" s="34">
+        <v>500</v>
+      </c>
+      <c r="W9" s="34">
         <v>7</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9" s="34">
         <v>4</v>
       </c>
-      <c r="Y9" s="36">
+      <c r="Y9" s="35">
         <v>0.32432783892630201</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="39">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>100</v>
-      </c>
-      <c r="E10" s="13">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C10" s="38">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>100</v>
+      </c>
+      <c r="E10" s="12">
         <v>7</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>4.5</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.25872424098815144</v>
       </c>
-      <c r="I10" s="39">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29">
-        <v>100</v>
-      </c>
-      <c r="K10" s="29">
+      <c r="I10" s="38">
+        <v>1</v>
+      </c>
+      <c r="J10" s="28">
+        <v>100</v>
+      </c>
+      <c r="K10" s="28">
         <v>7</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="28">
         <v>4.5</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="29">
         <v>0.20310126951034663</v>
       </c>
-      <c r="O10" s="39">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="13">
+      <c r="O10" s="38">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="12">
         <v>7</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="12">
         <v>4.5</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="13">
         <v>0.41349032434826538</v>
       </c>
-      <c r="U10" s="39">
-        <v>1</v>
-      </c>
-      <c r="V10" s="35">
-        <v>500</v>
-      </c>
-      <c r="W10" s="35">
+      <c r="U10" s="38">
+        <v>1</v>
+      </c>
+      <c r="V10" s="34">
+        <v>500</v>
+      </c>
+      <c r="W10" s="34">
         <v>7</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="34">
         <v>4.5</v>
       </c>
-      <c r="Y10" s="36">
+      <c r="Y10" s="35">
         <v>0.29834748435094671</v>
       </c>
     </row>
-    <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="39">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>100</v>
-      </c>
-      <c r="E11" s="15">
+    <row r="11" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="38">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>100</v>
+      </c>
+      <c r="E11" s="14">
         <v>7</v>
       </c>
-      <c r="F11" s="15">
-        <v>5</v>
-      </c>
-      <c r="G11" s="16">
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
+      <c r="G11" s="15">
         <v>0.2634932557115815</v>
       </c>
-      <c r="I11" s="39">
-        <v>1</v>
-      </c>
-      <c r="J11" s="31">
-        <v>100</v>
-      </c>
-      <c r="K11" s="31">
+      <c r="I11" s="38">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <v>100</v>
+      </c>
+      <c r="K11" s="30">
         <v>7</v>
       </c>
-      <c r="L11" s="31">
-        <v>5</v>
-      </c>
-      <c r="M11" s="32">
+      <c r="L11" s="30">
+        <v>5</v>
+      </c>
+      <c r="M11" s="31">
         <v>0.20991484574826252</v>
       </c>
-      <c r="O11" s="39">
-        <v>0</v>
-      </c>
-      <c r="P11" s="15">
-        <v>500</v>
-      </c>
-      <c r="Q11" s="15">
+      <c r="O11" s="38">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>500</v>
+      </c>
+      <c r="Q11" s="14">
         <v>7</v>
       </c>
-      <c r="R11" s="15">
-        <v>5</v>
-      </c>
-      <c r="S11" s="16">
+      <c r="R11" s="14">
+        <v>5</v>
+      </c>
+      <c r="S11" s="15">
         <v>0.40712566763138769</v>
       </c>
-      <c r="U11" s="39">
-        <v>1</v>
-      </c>
-      <c r="V11" s="37">
-        <v>500</v>
-      </c>
-      <c r="W11" s="37">
+      <c r="U11" s="38">
+        <v>1</v>
+      </c>
+      <c r="V11" s="36">
+        <v>500</v>
+      </c>
+      <c r="W11" s="36">
         <v>7</v>
       </c>
-      <c r="X11" s="37">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="38">
+      <c r="X11" s="36">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="37">
         <v>0.30628586591465112</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="39">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
-        <v>500</v>
-      </c>
-      <c r="E12" s="19">
-        <v>5</v>
-      </c>
-      <c r="F12" s="19">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C12" s="38">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>500</v>
+      </c>
+      <c r="E12" s="18">
+        <v>5</v>
+      </c>
+      <c r="F12" s="18">
         <v>4</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>0.31710988901757858</v>
       </c>
-      <c r="I12" s="39">
-        <v>1</v>
-      </c>
-      <c r="J12" s="23">
-        <v>500</v>
-      </c>
-      <c r="K12" s="23">
-        <v>5</v>
-      </c>
-      <c r="L12" s="23">
+      <c r="I12" s="38">
+        <v>1</v>
+      </c>
+      <c r="J12" s="22">
+        <v>500</v>
+      </c>
+      <c r="K12" s="22">
+        <v>5</v>
+      </c>
+      <c r="L12" s="22">
         <v>4</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="23">
         <v>0.25890381893136977</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="39">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>500</v>
-      </c>
-      <c r="E13" s="21">
-        <v>5</v>
-      </c>
-      <c r="F13" s="21">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C13" s="38">
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>500</v>
+      </c>
+      <c r="E13" s="20">
+        <v>5</v>
+      </c>
+      <c r="F13" s="20">
         <v>4.5</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>0.30846346275485159</v>
       </c>
-      <c r="I13" s="39">
-        <v>1</v>
-      </c>
-      <c r="J13" s="25">
-        <v>500</v>
-      </c>
-      <c r="K13" s="25">
-        <v>5</v>
-      </c>
-      <c r="L13" s="25">
+      <c r="I13" s="38">
+        <v>1</v>
+      </c>
+      <c r="J13" s="24">
+        <v>500</v>
+      </c>
+      <c r="K13" s="24">
+        <v>5</v>
+      </c>
+      <c r="L13" s="24">
         <v>4.5</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="25">
         <v>0.27089636858332561</v>
       </c>
     </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="39">
-        <v>0</v>
-      </c>
-      <c r="D14" s="21">
-        <v>500</v>
-      </c>
-      <c r="E14" s="21">
-        <v>5</v>
-      </c>
-      <c r="F14" s="21">
-        <v>5</v>
-      </c>
-      <c r="G14" s="22">
+    <row r="14" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C14" s="38">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
+        <v>500</v>
+      </c>
+      <c r="E14" s="20">
+        <v>5</v>
+      </c>
+      <c r="F14" s="20">
+        <v>5</v>
+      </c>
+      <c r="G14" s="21">
         <v>0.31894060067929675</v>
       </c>
-      <c r="I14" s="39">
-        <v>1</v>
-      </c>
-      <c r="J14" s="25">
-        <v>500</v>
-      </c>
-      <c r="K14" s="25">
-        <v>5</v>
-      </c>
-      <c r="L14" s="25">
-        <v>5</v>
-      </c>
-      <c r="M14" s="26">
+      <c r="I14" s="38">
+        <v>1</v>
+      </c>
+      <c r="J14" s="24">
+        <v>500</v>
+      </c>
+      <c r="K14" s="24">
+        <v>5</v>
+      </c>
+      <c r="L14" s="24">
+        <v>5</v>
+      </c>
+      <c r="M14" s="25">
         <v>0.25501688594178085</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="39">
-        <v>0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>500</v>
-      </c>
-      <c r="E15" s="17">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C15" s="38">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>500</v>
+      </c>
+      <c r="E15" s="16">
         <v>6</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>4</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>0.36278300835779353</v>
       </c>
-      <c r="I15" s="39">
-        <v>1</v>
-      </c>
-      <c r="J15" s="33">
-        <v>500</v>
-      </c>
-      <c r="K15" s="33">
+      <c r="I15" s="38">
+        <v>1</v>
+      </c>
+      <c r="J15" s="32">
+        <v>500</v>
+      </c>
+      <c r="K15" s="32">
         <v>6</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="32">
         <v>4</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="33">
         <v>0.32553906121898857</v>
       </c>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="39">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>500</v>
-      </c>
-      <c r="E16" s="17">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.35">
+      <c r="C16" s="38">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>500</v>
+      </c>
+      <c r="E16" s="16">
         <v>6</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>4.5</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="17">
         <v>0.3325260671461826</v>
       </c>
-      <c r="I16" s="39">
-        <v>1</v>
-      </c>
-      <c r="J16" s="33">
-        <v>500</v>
-      </c>
-      <c r="K16" s="33">
+      <c r="I16" s="38">
+        <v>1</v>
+      </c>
+      <c r="J16" s="32">
+        <v>500</v>
+      </c>
+      <c r="K16" s="32">
         <v>6</v>
       </c>
-      <c r="L16" s="33">
+      <c r="L16" s="32">
         <v>4.5</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="33">
         <v>0.3197130726654927</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="39">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>500</v>
-      </c>
-      <c r="E17" s="17">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C17" s="38">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>500</v>
+      </c>
+      <c r="E17" s="16">
         <v>6</v>
       </c>
-      <c r="F17" s="17">
-        <v>5</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="F17" s="16">
+        <v>5</v>
+      </c>
+      <c r="G17" s="17">
         <v>0.36871917382431574</v>
       </c>
-      <c r="I17" s="39">
-        <v>1</v>
-      </c>
-      <c r="J17" s="33">
-        <v>500</v>
-      </c>
-      <c r="K17" s="33">
+      <c r="I17" s="38">
+        <v>1</v>
+      </c>
+      <c r="J17" s="32">
+        <v>500</v>
+      </c>
+      <c r="K17" s="32">
         <v>6</v>
       </c>
-      <c r="L17" s="33">
-        <v>5</v>
-      </c>
-      <c r="M17" s="34">
+      <c r="L17" s="32">
+        <v>5</v>
+      </c>
+      <c r="M17" s="33">
         <v>0.31134728011750629</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="39">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
-        <v>500</v>
-      </c>
-      <c r="E18" s="13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C18" s="38">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>500</v>
+      </c>
+      <c r="E18" s="12">
         <v>7</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>4</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0.41726336858423291</v>
       </c>
-      <c r="I18" s="39">
-        <v>1</v>
-      </c>
-      <c r="J18" s="35">
-        <v>500</v>
-      </c>
-      <c r="K18" s="35">
+      <c r="I18" s="38">
+        <v>1</v>
+      </c>
+      <c r="J18" s="34">
+        <v>500</v>
+      </c>
+      <c r="K18" s="34">
         <v>7</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="34">
         <v>4</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="35">
         <v>0.32432783892630201</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="39">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13">
-        <v>500</v>
-      </c>
-      <c r="E19" s="13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C19" s="38">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>500</v>
+      </c>
+      <c r="E19" s="12">
         <v>7</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>4.5</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>0.41349032434826538</v>
       </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="35">
-        <v>500</v>
-      </c>
-      <c r="K19" s="35">
+      <c r="I19" s="38">
+        <v>1</v>
+      </c>
+      <c r="J19" s="34">
+        <v>500</v>
+      </c>
+      <c r="K19" s="34">
         <v>7</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="34">
         <v>4.5</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="35">
         <v>0.29834748435094671</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="39">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>500</v>
-      </c>
-      <c r="E20" s="15">
+    <row r="20" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="38">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>500</v>
+      </c>
+      <c r="E20" s="14">
         <v>7</v>
       </c>
-      <c r="F20" s="15">
-        <v>5</v>
-      </c>
-      <c r="G20" s="16">
+      <c r="F20" s="14">
+        <v>5</v>
+      </c>
+      <c r="G20" s="15">
         <v>0.40712566763138769</v>
       </c>
-      <c r="I20" s="39">
-        <v>1</v>
-      </c>
-      <c r="J20" s="37">
-        <v>500</v>
-      </c>
-      <c r="K20" s="37">
+      <c r="I20" s="38">
+        <v>1</v>
+      </c>
+      <c r="J20" s="36">
+        <v>500</v>
+      </c>
+      <c r="K20" s="36">
         <v>7</v>
       </c>
-      <c r="L20" s="37">
-        <v>5</v>
-      </c>
-      <c r="M20" s="38">
+      <c r="L20" s="36">
+        <v>5</v>
+      </c>
+      <c r="M20" s="37">
         <v>0.30628586591465112</v>
       </c>
     </row>
